--- a/result_files/final_result_dataAug_T_lapras_ST4_NT1.xlsx
+++ b/result_files/final_result_dataAug_T_lapras_ST4_NT1.xlsx
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9696252465483235</v>
+        <v>0.9588264299802761</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01700890407259383</v>
+        <v>0.02616596809291777</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8840236686390532</v>
+        <v>0.8855522682445759</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05620903823416828</v>
+        <v>0.03263349969368202</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9839250493096647</v>
+        <v>0.965483234714004</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01244167951708889</v>
+        <v>0.03851649843514515</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8082840236686391</v>
+        <v>0.8257889546351086</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03527264767261605</v>
+        <v>0.05407184155249235</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9347263313609467</v>
+        <v>0.9016642011834319</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03802280562380079</v>
+        <v>0.06465369704344144</v>
       </c>
     </row>
   </sheetData>
